--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ptprc</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H2">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N2">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O2">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P2">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q2">
-        <v>0.9250981868498662</v>
+        <v>2.357444597263889</v>
       </c>
       <c r="R2">
-        <v>0.9250981868498662</v>
+        <v>21.217001375375</v>
       </c>
       <c r="S2">
-        <v>5.166662821587788E-05</v>
+        <v>9.240017097667621E-05</v>
       </c>
       <c r="T2">
-        <v>5.166662821587788E-05</v>
+        <v>9.24001709766762E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H3">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I3">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J3">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N3">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O3">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P3">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q3">
-        <v>1.36255659996292</v>
+        <v>2.553733434055556</v>
       </c>
       <c r="R3">
-        <v>1.36255659996292</v>
+        <v>22.9836009065</v>
       </c>
       <c r="S3">
-        <v>7.609863069032237E-05</v>
+        <v>0.0001000937227578775</v>
       </c>
       <c r="T3">
-        <v>7.609863069032237E-05</v>
+        <v>0.0001000937227578775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H4">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I4">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J4">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N4">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O4">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P4">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q4">
-        <v>0.09467501142022419</v>
+        <v>0.1809308088611111</v>
       </c>
       <c r="R4">
-        <v>0.09467501142022419</v>
+        <v>1.62837727975</v>
       </c>
       <c r="S4">
-        <v>5.287588588881929E-06</v>
+        <v>7.091593029638268E-06</v>
       </c>
       <c r="T4">
-        <v>5.287588588881929E-06</v>
+        <v>7.091593029638267E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H5">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I5">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J5">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N5">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O5">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P5">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q5">
-        <v>1563.63895368046</v>
+        <v>0.2156252175136667</v>
       </c>
       <c r="R5">
-        <v>1563.63895368046</v>
+        <v>1.940626957623</v>
       </c>
       <c r="S5">
-        <v>0.08732905720934427</v>
+        <v>8.451442289786951E-06</v>
       </c>
       <c r="T5">
-        <v>0.08732905720934427</v>
+        <v>8.451442289786951E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H6">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I6">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J6">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N6">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O6">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P6">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q6">
-        <v>2303.049132061687</v>
+        <v>0.2335789048146667</v>
       </c>
       <c r="R6">
-        <v>2303.049132061687</v>
+        <v>2.102210143332</v>
       </c>
       <c r="S6">
-        <v>0.1286250313324226</v>
+        <v>9.155138053496338E-06</v>
       </c>
       <c r="T6">
-        <v>0.1286250313324226</v>
+        <v>9.155138053496338E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H7">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I7">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J7">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N7">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O7">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P7">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q7">
-        <v>160.0235930641057</v>
+        <v>0.01654895519533333</v>
       </c>
       <c r="R7">
-        <v>160.0235930641057</v>
+        <v>0.148940596758</v>
       </c>
       <c r="S7">
-        <v>0.008937299419822417</v>
+        <v>6.486372113723892E-07</v>
       </c>
       <c r="T7">
-        <v>0.008937299419822417</v>
+        <v>6.486372113723892E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H8">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I8">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J8">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N8">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O8">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P8">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q8">
-        <v>2211.142356801751</v>
+        <v>2866.310179118129</v>
       </c>
       <c r="R8">
-        <v>2211.142356801751</v>
+        <v>25796.79161206316</v>
       </c>
       <c r="S8">
-        <v>0.1234920484173388</v>
+        <v>0.1123451855157451</v>
       </c>
       <c r="T8">
-        <v>0.1234920484173388</v>
+        <v>0.1123451855157451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H9">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I9">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J9">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N9">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O9">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P9">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q9">
-        <v>3256.742532354285</v>
+        <v>3104.968891011595</v>
       </c>
       <c r="R9">
-        <v>3256.742532354285</v>
+        <v>27944.72001910436</v>
       </c>
       <c r="S9">
-        <v>0.1818886989574147</v>
+        <v>0.12169942688779</v>
       </c>
       <c r="T9">
-        <v>0.1818886989574147</v>
+        <v>0.12169942688779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H10">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I10">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J10">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N10">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O10">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P10">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q10">
-        <v>226.2894153914506</v>
+        <v>219.9855808940682</v>
       </c>
       <c r="R10">
-        <v>226.2894153914506</v>
+        <v>1979.870228046614</v>
       </c>
       <c r="S10">
-        <v>0.01263823803831091</v>
+        <v>0.008622346972907459</v>
       </c>
       <c r="T10">
-        <v>0.01263823803831091</v>
+        <v>0.008622346972907459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1086,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>551.244695204251</v>
+        <v>390.777049</v>
       </c>
       <c r="H11">
-        <v>551.244695204251</v>
+        <v>1172.331147</v>
       </c>
       <c r="I11">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="J11">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N11">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O11">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P11">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q11">
-        <v>3177.156339225599</v>
+        <v>3641.845796342386</v>
       </c>
       <c r="R11">
-        <v>3177.156339225599</v>
+        <v>32776.61216708147</v>
       </c>
       <c r="S11">
-        <v>0.1774438191490358</v>
+        <v>0.142742346795036</v>
       </c>
       <c r="T11">
-        <v>0.1774438191490358</v>
+        <v>0.1427423467950359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>551.244695204251</v>
+        <v>390.777049</v>
       </c>
       <c r="H12">
-        <v>551.244695204251</v>
+        <v>1172.331147</v>
       </c>
       <c r="I12">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="J12">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N12">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O12">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P12">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q12">
-        <v>4679.5631000717</v>
+        <v>3945.078235386063</v>
       </c>
       <c r="R12">
-        <v>4679.5631000717</v>
+        <v>35505.70411847456</v>
       </c>
       <c r="S12">
-        <v>0.2613530653729228</v>
+        <v>0.1546275589632581</v>
       </c>
       <c r="T12">
-        <v>0.2613530653729228</v>
+        <v>0.1546275589632581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,433 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>390.777049</v>
+      </c>
+      <c r="H13">
+        <v>1172.331147</v>
+      </c>
+      <c r="I13">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J13">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7152593333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.145778</v>
+      </c>
+      <c r="O13">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="P13">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="Q13">
+        <v>279.5069315497073</v>
+      </c>
+      <c r="R13">
+        <v>2515.562383947366</v>
+      </c>
+      <c r="S13">
+        <v>0.01095528959379745</v>
+      </c>
+      <c r="T13">
+        <v>0.01095528959379744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H14">
+        <v>1706.392639</v>
+      </c>
+      <c r="I14">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J14">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.319497666666667</v>
+      </c>
+      <c r="N14">
+        <v>27.958493</v>
+      </c>
+      <c r="O14">
+        <v>0.4629603708903243</v>
+      </c>
+      <c r="P14">
+        <v>0.4629603708903243</v>
+      </c>
+      <c r="Q14">
+        <v>5300.907405859225</v>
+      </c>
+      <c r="R14">
+        <v>47708.16665273303</v>
+      </c>
+      <c r="S14">
+        <v>0.2077693580588921</v>
+      </c>
+      <c r="T14">
+        <v>0.2077693580588921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H15">
+        <v>1706.392639</v>
+      </c>
+      <c r="I15">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J15">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.09547066666667</v>
+      </c>
+      <c r="N15">
+        <v>30.286412</v>
+      </c>
+      <c r="O15">
+        <v>0.5015080223550378</v>
+      </c>
+      <c r="P15">
+        <v>0.5015080223550378</v>
+      </c>
+      <c r="Q15">
+        <v>5742.278944280141</v>
+      </c>
+      <c r="R15">
+        <v>51680.51049852127</v>
+      </c>
+      <c r="S15">
+        <v>0.225068939844044</v>
+      </c>
+      <c r="T15">
+        <v>0.225068939844044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H16">
+        <v>1706.392639</v>
+      </c>
+      <c r="I16">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J16">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7152593333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.145778</v>
+      </c>
+      <c r="O16">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="P16">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="Q16">
+        <v>406.8377537920158</v>
+      </c>
+      <c r="R16">
+        <v>3661.539784128142</v>
+      </c>
+      <c r="S16">
+        <v>0.01594602819246707</v>
+      </c>
+      <c r="T16">
+        <v>0.01594602819246707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.021591</v>
+      </c>
+      <c r="I17">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J17">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.319497666666667</v>
+      </c>
+      <c r="N17">
+        <v>27.958493</v>
+      </c>
+      <c r="O17">
+        <v>0.4629603708903243</v>
+      </c>
+      <c r="P17">
+        <v>0.4629603708903243</v>
+      </c>
+      <c r="Q17">
+        <v>0.06707242470699999</v>
+      </c>
+      <c r="R17">
+        <v>0.603651822363</v>
+      </c>
+      <c r="S17">
+        <v>2.628907384691044E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.628907384691044E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>551.244695204251</v>
-      </c>
-      <c r="H13">
-        <v>551.244695204251</v>
-      </c>
-      <c r="I13">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="J13">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.589850156629819</v>
-      </c>
-      <c r="N13">
-        <v>0.589850156629819</v>
-      </c>
-      <c r="O13">
-        <v>0.03974051430261472</v>
-      </c>
-      <c r="P13">
-        <v>0.03974051430261472</v>
-      </c>
-      <c r="Q13">
-        <v>325.1517698075843</v>
-      </c>
-      <c r="R13">
-        <v>325.1517698075843</v>
-      </c>
-      <c r="S13">
-        <v>0.01815968925589251</v>
-      </c>
-      <c r="T13">
-        <v>0.01815968925589251</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.021591</v>
+      </c>
+      <c r="I18">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J18">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.09547066666667</v>
+      </c>
+      <c r="N18">
+        <v>30.286412</v>
+      </c>
+      <c r="O18">
+        <v>0.5015080223550378</v>
+      </c>
+      <c r="P18">
+        <v>0.5015080223550378</v>
+      </c>
+      <c r="Q18">
+        <v>0.07265710238799999</v>
+      </c>
+      <c r="R18">
+        <v>0.653913921492</v>
+      </c>
+      <c r="S18">
+        <v>2.847799134330861E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.847799134330861E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.021591</v>
+      </c>
+      <c r="I19">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J19">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7152593333333334</v>
+      </c>
+      <c r="N19">
+        <v>2.145778</v>
+      </c>
+      <c r="O19">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="P19">
+        <v>0.03553160675463796</v>
+      </c>
+      <c r="Q19">
+        <v>0.005147721422</v>
+      </c>
+      <c r="R19">
+        <v>0.046329492798</v>
+      </c>
+      <c r="S19">
+        <v>2.01765224975022E-07</v>
+      </c>
+      <c r="T19">
+        <v>2.01765224975022E-07</v>
       </c>
     </row>
   </sheetData>
